--- a/crossdock/crossdock_data.xlsx
+++ b/crossdock/crossdock_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\crossdock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A497B-6D56-43B6-95A5-D88BBE51A7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0D1BC-3B1E-4923-9AF7-C7F92B9D15C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="3" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="illustration map" sheetId="2" r:id="rId1"/>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B89809-B301-4D04-A2F1-52157BF2BFD6}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,7 +1731,7 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1833,7 +1833,7 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,7 +1867,7 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1884,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
         <v>16</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E066D9-5BBB-4CDE-9DB9-94A13D4A9EE2}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2383,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2497,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/crossdock/crossdock_data.xlsx
+++ b/crossdock/crossdock_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\crossdock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\crossdock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB0D1BC-3B1E-4923-9AF7-C7F92B9D15C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C025EC1-A69B-439A-9254-73F404D34D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="illustration map" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="228">
   <si>
     <t>illustration of ware house</t>
   </si>
@@ -292,6 +292,438 @@
   </si>
   <si>
     <t>cl3</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>f40</t>
+  </si>
+  <si>
+    <t>f41</t>
+  </si>
+  <si>
+    <t>f42</t>
+  </si>
+  <si>
+    <t>f43</t>
+  </si>
+  <si>
+    <t>f44</t>
+  </si>
+  <si>
+    <t>f45</t>
+  </si>
+  <si>
+    <t>f46</t>
+  </si>
+  <si>
+    <t>f47</t>
+  </si>
+  <si>
+    <t>f48</t>
+  </si>
+  <si>
+    <t>f49</t>
+  </si>
+  <si>
+    <t>f50</t>
+  </si>
+  <si>
+    <t>f51</t>
+  </si>
+  <si>
+    <t>f52</t>
+  </si>
+  <si>
+    <t>f53</t>
+  </si>
+  <si>
+    <t>f54</t>
+  </si>
+  <si>
+    <t>f55</t>
+  </si>
+  <si>
+    <t>f56</t>
+  </si>
+  <si>
+    <t>f57</t>
+  </si>
+  <si>
+    <t>f58</t>
+  </si>
+  <si>
+    <t>f59</t>
+  </si>
+  <si>
+    <t>f60</t>
+  </si>
+  <si>
+    <t>f61</t>
+  </si>
+  <si>
+    <t>f62</t>
+  </si>
+  <si>
+    <t>f63</t>
+  </si>
+  <si>
+    <t>f64</t>
+  </si>
+  <si>
+    <t>f65</t>
+  </si>
+  <si>
+    <t>f66</t>
+  </si>
+  <si>
+    <t>f67</t>
+  </si>
+  <si>
+    <t>f68</t>
+  </si>
+  <si>
+    <t>f69</t>
+  </si>
+  <si>
+    <t>f70</t>
+  </si>
+  <si>
+    <t>f71</t>
+  </si>
+  <si>
+    <t>f72</t>
+  </si>
+  <si>
+    <t>f73</t>
+  </si>
+  <si>
+    <t>f74</t>
+  </si>
+  <si>
+    <t>f75</t>
+  </si>
+  <si>
+    <t>f76</t>
+  </si>
+  <si>
+    <t>f77</t>
+  </si>
+  <si>
+    <t>f78</t>
+  </si>
+  <si>
+    <t>f79</t>
+  </si>
+  <si>
+    <t>f80</t>
+  </si>
+  <si>
+    <t>f81</t>
+  </si>
+  <si>
+    <t>f82</t>
+  </si>
+  <si>
+    <t>f83</t>
+  </si>
+  <si>
+    <t>f84</t>
+  </si>
+  <si>
+    <t>f85</t>
+  </si>
+  <si>
+    <t>f86</t>
+  </si>
+  <si>
+    <t>f87</t>
+  </si>
+  <si>
+    <t>f88</t>
+  </si>
+  <si>
+    <t>f89</t>
+  </si>
+  <si>
+    <t>f90</t>
+  </si>
+  <si>
+    <t>f91</t>
+  </si>
+  <si>
+    <t>f92</t>
+  </si>
+  <si>
+    <t>f93</t>
+  </si>
+  <si>
+    <t>f94</t>
+  </si>
+  <si>
+    <t>f95</t>
+  </si>
+  <si>
+    <t>f96</t>
+  </si>
+  <si>
+    <t>f97</t>
+  </si>
+  <si>
+    <t>f98</t>
+  </si>
+  <si>
+    <t>f99</t>
+  </si>
+  <si>
+    <t>f100</t>
+  </si>
+  <si>
+    <t>f101</t>
+  </si>
+  <si>
+    <t>f102</t>
+  </si>
+  <si>
+    <t>f103</t>
+  </si>
+  <si>
+    <t>f104</t>
+  </si>
+  <si>
+    <t>f105</t>
+  </si>
+  <si>
+    <t>f106</t>
+  </si>
+  <si>
+    <t>f107</t>
+  </si>
+  <si>
+    <t>f108</t>
+  </si>
+  <si>
+    <t>f109</t>
+  </si>
+  <si>
+    <t>f110</t>
+  </si>
+  <si>
+    <t>f111</t>
+  </si>
+  <si>
+    <t>f112</t>
+  </si>
+  <si>
+    <t>f113</t>
+  </si>
+  <si>
+    <t>f114</t>
+  </si>
+  <si>
+    <t>f115</t>
+  </si>
+  <si>
+    <t>f116</t>
+  </si>
+  <si>
+    <t>f117</t>
+  </si>
+  <si>
+    <t>f118</t>
+  </si>
+  <si>
+    <t>f119</t>
+  </si>
+  <si>
+    <t>f120</t>
+  </si>
+  <si>
+    <t>f121</t>
+  </si>
+  <si>
+    <t>f122</t>
+  </si>
+  <si>
+    <t>f123</t>
+  </si>
+  <si>
+    <t>f124</t>
+  </si>
+  <si>
+    <t>f125</t>
+  </si>
+  <si>
+    <t>f126</t>
+  </si>
+  <si>
+    <t>f127</t>
+  </si>
+  <si>
+    <t>f128</t>
+  </si>
+  <si>
+    <t>f129</t>
+  </si>
+  <si>
+    <t>f130</t>
+  </si>
+  <si>
+    <t>f131</t>
+  </si>
+  <si>
+    <t>f132</t>
+  </si>
+  <si>
+    <t>f133</t>
+  </si>
+  <si>
+    <t>f134</t>
+  </si>
+  <si>
+    <t>f135</t>
+  </si>
+  <si>
+    <t>f136</t>
+  </si>
+  <si>
+    <t>f137</t>
+  </si>
+  <si>
+    <t>f138</t>
+  </si>
+  <si>
+    <t>f139</t>
+  </si>
+  <si>
+    <t>f140</t>
+  </si>
+  <si>
+    <t>f141</t>
+  </si>
+  <si>
+    <t>f142</t>
+  </si>
+  <si>
+    <t>f143</t>
+  </si>
+  <si>
+    <t>f144</t>
+  </si>
+  <si>
+    <t>f145</t>
+  </si>
+  <si>
+    <t>f146</t>
+  </si>
+  <si>
+    <t>f147</t>
+  </si>
+  <si>
+    <t>f148</t>
+  </si>
+  <si>
+    <t>f149</t>
+  </si>
+  <si>
+    <t>f150</t>
+  </si>
+  <si>
+    <t>f151</t>
+  </si>
+  <si>
+    <t>f152</t>
+  </si>
+  <si>
+    <t>f153</t>
+  </si>
+  <si>
+    <t>f154</t>
+  </si>
+  <si>
+    <t>f155</t>
+  </si>
+  <si>
+    <t>f156</t>
+  </si>
+  <si>
+    <t>f157</t>
+  </si>
+  <si>
+    <t>f158</t>
+  </si>
+  <si>
+    <t>f159</t>
+  </si>
+  <si>
+    <t>cl4</t>
+  </si>
+  <si>
+    <t>cl5</t>
+  </si>
+  <si>
+    <t>cl6</t>
+  </si>
+  <si>
+    <t>cl7</t>
+  </si>
+  <si>
+    <t>cl8</t>
+  </si>
+  <si>
+    <t>cl9</t>
+  </si>
+  <si>
+    <t>cl10</t>
+  </si>
+  <si>
+    <t>cl11</t>
+  </si>
+  <si>
+    <t>cl12</t>
+  </si>
+  <si>
+    <t>cl13</t>
+  </si>
+  <si>
+    <t>cl14</t>
+  </si>
+  <si>
+    <t>cl15</t>
   </si>
 </sst>
 </file>
@@ -403,59 +835,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>390798</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19406</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8A5DA3-B8F8-4F82-8E24-97EADA6C12B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5143500" y="133350"/>
-          <a:ext cx="1952898" cy="2553056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +876,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -599,7 +982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,18 +1132,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B89809-B301-4D04-A2F1-52157BF2BFD6}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="13" width="3.140625" customWidth="1"/>
+    <col min="2" max="30" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,30 +1153,28 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="G2" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="H2" s="5"/>
+      <c r="J2" s="6">
+        <v>3</v>
+      </c>
+      <c r="M2" s="5">
         <v>4</v>
       </c>
-      <c r="F3" s="5">
+      <c r="P2" s="5">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -807,11 +1188,21 @@
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="P4" s="2" t="s">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="AE4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -825,11 +1216,21 @@
       <c r="F5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="P5" s="2" t="s">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="AE5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -839,11 +1240,17 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="P6" s="2" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="AE6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -855,11 +1262,19 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="P7" s="2" t="s">
+      <c r="L7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="AE7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -871,11 +1286,19 @@
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="P8" s="2" t="s">
+      <c r="L8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="AE8" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -887,11 +1310,19 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="P9" s="2" t="s">
+      <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="AE9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -901,11 +1332,17 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="P10" s="2" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="AE10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -915,11 +1352,17 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="P11" s="2" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="AE11" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -929,8 +1372,14 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -942,29 +1391,237 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
+      <c r="L13" s="4">
+        <v>9</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C17" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4">
+        <v>11</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="H27" s="5"/>
+      <c r="J27" s="6">
+        <v>3</v>
+      </c>
+      <c r="M27" s="5">
         <v>4</v>
       </c>
-      <c r="F14" s="5">
+      <c r="P27" s="5">
         <v>5</v>
       </c>
-      <c r="G14" s="5">
-        <v>6</v>
-      </c>
-      <c r="H14" s="5">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -974,52 +1631,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC115E5E-7BD7-4A60-9304-B4F32D7BD265}">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J28" sqref="J28:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
       <c r="B2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
       <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1029,20 +1694,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF72813-D190-4FAF-8DD0-DE4F85A4194E}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1731,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1073,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -1082,14 +1748,14 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <f>E2/12</f>
-        <v>0.25</v>
+        <f>C2/5</f>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1106,14 +1772,14 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F11" si="0">E3/12</f>
-        <v>0.25</v>
+        <f t="shared" ref="F3:F11" si="0">C3/5</f>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1787,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1131,13 +1797,13 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1155,13 +1821,13 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1169,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -1179,13 +1845,13 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1859,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1203,13 +1869,13 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2.4</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1217,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -1227,13 +1893,13 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1241,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1251,13 +1917,13 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>9.6</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1931,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1275,13 +1941,13 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1955,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -1299,9 +1965,249 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>2.4</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>C12/5</f>
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F21" si="1">C13/5</f>
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
@@ -1313,20 +2219,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169E530-1FB1-4633-84DD-91988164BD24}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.109375" style="3"/>
+    <col min="3" max="3" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -1343,7 +2249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
@@ -1357,10 +2263,10 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1374,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1391,10 +2297,10 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1408,10 +2314,10 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1425,10 +2331,10 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1442,10 +2348,10 @@
         <v>16</v>
       </c>
       <c r="E7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1459,10 +2365,10 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1476,10 +2382,10 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1493,10 +2399,10 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1510,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1527,10 +2433,10 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1544,10 +2450,10 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1561,10 +2467,10 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1578,10 +2484,10 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1595,10 +2501,10 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1612,10 +2518,10 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1629,10 +2535,10 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1646,10 +2552,10 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1663,10 +2569,10 @@
         <v>16</v>
       </c>
       <c r="E20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1680,10 +2586,10 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1697,10 +2603,10 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1714,10 +2620,10 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -1731,10 +2637,10 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -1748,10 +2654,10 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -1765,10 +2671,10 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
@@ -1782,10 +2688,10 @@
         <v>16</v>
       </c>
       <c r="E27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -1799,10 +2705,10 @@
         <v>16</v>
       </c>
       <c r="E28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -1816,10 +2722,10 @@
         <v>16</v>
       </c>
       <c r="E29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1833,10 +2739,10 @@
         <v>16</v>
       </c>
       <c r="E30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -1850,10 +2756,10 @@
         <v>16</v>
       </c>
       <c r="E31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -1867,10 +2773,10 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -1884,10 +2790,10 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -1901,10 +2807,10 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -1918,10 +2824,10 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -1935,10 +2841,10 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -1952,10 +2858,10 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -1969,10 +2875,10 @@
         <v>16</v>
       </c>
       <c r="E38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
@@ -1986,10 +2892,10 @@
         <v>16</v>
       </c>
       <c r="E39">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -2003,10 +2909,10 @@
         <v>16</v>
       </c>
       <c r="E40">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -2020,8 +2926,2168 @@
         <v>16</v>
       </c>
       <c r="E41">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="3">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="3">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="3">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="3">
+        <v>3</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" s="3">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="3">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="3">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="3">
+        <v>10</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="3">
+        <v>6</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="3">
+        <v>7</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="3">
+        <v>8</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="3">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" s="3">
+        <v>3</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="3">
+        <v>7</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C89" s="3">
+        <v>8</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" s="3">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C93" s="3">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="3">
+        <v>3</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="3">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="3">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="3">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" s="3">
+        <v>9</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="3">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="3">
+        <v>5</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C107" s="3">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="3">
+        <v>7</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="3">
+        <v>9</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" s="3">
+        <v>2</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="3">
+        <v>4</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C116" s="3">
+        <v>5</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="3">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="3">
+        <v>8</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="3">
+        <v>9</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="3">
+        <v>10</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C123" s="3">
+        <v>2</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C124" s="3">
+        <v>3</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C126" s="3">
+        <v>5</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" s="3">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C128" s="3">
+        <v>7</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C129" s="3">
+        <v>8</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C130" s="3">
+        <v>9</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C135" s="3">
+        <v>4</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C136" s="3">
+        <v>5</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C137" s="3">
+        <v>6</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C138" s="3">
+        <v>7</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" s="3">
+        <v>8</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" s="3">
+        <v>9</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C141" s="3">
+        <v>10</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C142" s="3">
+        <v>1</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="3">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" s="3">
+        <v>4</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" s="3">
+        <v>5</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C147" s="3">
+        <v>6</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="3">
+        <v>7</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C149" s="3">
+        <v>8</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" s="3">
+        <v>9</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C151" s="3">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C153" s="3">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C155" s="3">
+        <v>4</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C156" s="3">
+        <v>5</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C157" s="3">
+        <v>6</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C158" s="3">
+        <v>7</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" s="3">
+        <v>8</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C160" s="3">
+        <v>9</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" s="3">
+        <v>10</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E162"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E163"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E164"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E165"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E166"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E167"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E168"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E169"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E170"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E171"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E172"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E173"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E174"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E175"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E176"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E201"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2031,19 +5097,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E066D9-5BBB-4CDE-9DB9-94A13D4A9EE2}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -2051,344 +5117,1303 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
       <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
       <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
       <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>37</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
       <c r="B25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
       <c r="B26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
       <c r="B32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
       <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
       <c r="B34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
       <c r="B35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
       <c r="B36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>53</v>
       </c>
       <c r="B37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>54</v>
       </c>
       <c r="B38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>55</v>
       </c>
       <c r="B39">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>56</v>
       </c>
       <c r="B40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>57</v>
       </c>
       <c r="B41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42">
         <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>131</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>153</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>154</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>157</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>170</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>171</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>176</v>
+      </c>
+      <c r="B122">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+      <c r="B129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>184</v>
+      </c>
+      <c r="B130">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>186</v>
+      </c>
+      <c r="B132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>192</v>
+      </c>
+      <c r="B138">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>197</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>198</v>
+      </c>
+      <c r="B144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>203</v>
+      </c>
+      <c r="B149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>204</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>205</v>
+      </c>
+      <c r="B151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>207</v>
+      </c>
+      <c r="B153">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>209</v>
+      </c>
+      <c r="B155">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>210</v>
+      </c>
+      <c r="B156">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>211</v>
+      </c>
+      <c r="B157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>212</v>
+      </c>
+      <c r="B158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>213</v>
+      </c>
+      <c r="B159">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BA62F-64DF-4A45-B678-AB2D7C70CAFC}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -2399,7 +6424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -2407,10 +6432,10 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -2421,7 +6446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2432,7 +6457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2443,7 +6468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2454,7 +6479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2465,7 +6490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2476,7 +6501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -2484,6 +6509,270 @@
         <v>15</v>
       </c>
       <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
         <v>30</v>
       </c>
     </row>
@@ -2494,15 +6783,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510DF738-759C-44ED-8F78-1923F126EB4F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -2513,7 +6802,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -2524,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -2535,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2546,7 +6835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2554,6 +6843,193 @@
         <v>25</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
     </row>

--- a/crossdock/crossdock_data.xlsx
+++ b/crossdock/crossdock_data.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\crossdock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C025EC1-A69B-439A-9254-73F404D34D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C3AF6-40FA-446E-BC93-06B80E0D012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="illustration map" sheetId="2" r:id="rId1"/>
     <sheet name="parameter" sheetId="9" r:id="rId2"/>
     <sheet name="demand" sheetId="4" r:id="rId3"/>
-    <sheet name="location_floor_cluster" sheetId="6" r:id="rId4"/>
-    <sheet name="distance_floor_shipping" sheetId="3" r:id="rId5"/>
-    <sheet name="distance_cluster" sheetId="7" r:id="rId6"/>
-    <sheet name="priority" sheetId="8" r:id="rId7"/>
+    <sheet name="demand_range" sheetId="10" r:id="rId4"/>
+    <sheet name="location_floor_cluster" sheetId="6" r:id="rId5"/>
+    <sheet name="distance_floor_shipping" sheetId="3" r:id="rId6"/>
+    <sheet name="distance_cluster" sheetId="7" r:id="rId7"/>
+    <sheet name="priority" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="228">
-  <si>
-    <t>illustration of ware house</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="229">
   <si>
     <t>s1</t>
   </si>
@@ -724,6 +722,12 @@
   </si>
   <si>
     <t>cl15</t>
+  </si>
+  <si>
+    <t>illustration of warehouse</t>
+  </si>
+  <si>
+    <t>Demand</t>
   </si>
 </sst>
 </file>
@@ -753,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +788,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -797,7 +807,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -818,11 +828,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1135,17 +1164,22 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="30" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="6" width="2.6640625" customWidth="1"/>
+    <col min="7" max="17" width="2.88671875" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="19" max="30" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1172,70 +1206,93 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="L3" s="10">
+        <v>8</v>
+      </c>
+      <c r="M3" s="11"/>
+      <c r="Q3" s="10">
+        <v>12</v>
+      </c>
+      <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>40</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="4">
+        <v>140</v>
+      </c>
       <c r="AE4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>41</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="L5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="4">
-        <v>11</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="AE5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>22</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
@@ -1247,23 +1304,25 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="AE6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>23</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="3"/>
@@ -1271,23 +1330,25 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="AE7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>24</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="3"/>
@@ -1295,23 +1356,25 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="AE8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>25</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="3"/>
@@ -1319,15 +1382,19 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="AE9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>26</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
@@ -1339,15 +1406,19 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="AE10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>27</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
@@ -1359,15 +1430,19 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="AE11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>28</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
@@ -1381,12 +1456,14 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4">
+        <v>29</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
@@ -1400,15 +1477,35 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="L15" s="10">
+        <v>9</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="Q15" s="10">
+        <v>13</v>
+      </c>
+      <c r="R15" s="11"/>
+    </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,23 +1514,23 @@
       <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
-        <v>10</v>
-      </c>
+      <c r="M16" s="4"/>
       <c r="N16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
@@ -1442,9 +1539,7 @@
       <c r="L17" s="4">
         <v>1</v>
       </c>
-      <c r="M17" s="4">
-        <v>11</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="4"/>
@@ -1454,8 +1549,12 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
@@ -1471,16 +1570,18 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="4">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4">
+        <v>33</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="3"/>
@@ -1492,16 +1593,18 @@
       <c r="A20">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>34</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="3"/>
@@ -1513,16 +1616,18 @@
       <c r="A21">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4">
+        <v>35</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="3"/>
@@ -1534,8 +1639,12 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
+        <v>36</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
@@ -1551,8 +1660,12 @@
       <c r="A23">
         <v>18</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4">
+        <v>37</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
@@ -1568,8 +1681,12 @@
       <c r="A24">
         <v>19</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4">
+        <v>38</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
@@ -1586,9 +1703,11 @@
         <v>20</v>
       </c>
       <c r="B25" s="4">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="4">
+        <v>39</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
@@ -1600,7 +1719,9 @@
       <c r="N25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
+      <c r="R25" s="4">
+        <v>159</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D27" s="5">
@@ -1625,7 +1746,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1633,23 +1754,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC115E5E-7BD7-4A60-9304-B4F32D7BD265}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>160</v>
@@ -1657,7 +1778,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1665,7 +1786,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -1673,7 +1794,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -1681,7 +1802,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>28</v>
@@ -1697,7 +1818,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,33 +1831,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -1752,21 +1873,22 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <f>C2/D2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>40</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1776,21 +1898,22 @@
         <v>8</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <f>INT(C3/D3)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1800,15 +1923,16 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <f t="shared" ref="G4:G21" si="1">INT(C4/D4)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -1824,21 +1948,22 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>40</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1848,21 +1973,22 @@
         <v>8</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1872,15 +1998,16 @@
         <v>2.4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1896,21 +2023,22 @@
         <v>8</v>
       </c>
       <c r="G8">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -1920,15 +2048,16 @@
         <v>9.6</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1944,21 +2073,22 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1968,21 +2098,22 @@
         <v>2.4</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1992,15 +2123,16 @@
         <v>4</v>
       </c>
       <c r="G12">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>40</v>
@@ -2012,19 +2144,20 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F21" si="1">C13/5</f>
+        <f t="shared" ref="F13:F21" si="2">C13/5</f>
         <v>8</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -2036,139 +2169,145 @@
         <v>3</v>
       </c>
       <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>48</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
+        <f t="shared" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-      <c r="G19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -2180,35 +2319,37 @@
         <v>3</v>
       </c>
       <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2218,11 +2359,475 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD8D284-8710-464A-AA1D-52306D2D0BC0}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>-0.1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>$C3*(1+A$2)</f>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>$C3*(1+B$2)</f>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <f>$C3*(1+D$2)</f>
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <f>$C3*(1+E$2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:B22" si="0">$C4*(1+A$2)</f>
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f>$C4*(1+B$2)</f>
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:E22" si="1">$C4*(1+D$2)</f>
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>38.400000000000006</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>43.2</v>
+      </c>
+      <c r="C20">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>52.800000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>57.599999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3169E530-1FB1-4633-84DD-91988164BD24}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2234,33 +2839,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -2268,16 +2873,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2285,16 +2890,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -2302,16 +2907,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2319,16 +2924,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2336,16 +2941,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2353,16 +2958,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -2370,16 +2975,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -2387,16 +2992,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2404,16 +3009,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2421,16 +3026,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>6</v>
@@ -2438,16 +3043,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -2455,16 +3060,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2472,16 +3077,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -2489,16 +3094,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -2506,16 +3111,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -2523,16 +3128,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -2540,16 +3145,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -2557,16 +3162,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -2574,16 +3179,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="3">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -2591,16 +3196,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -2608,16 +3213,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -2625,16 +3230,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>4</v>
@@ -2642,16 +3247,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3">
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2659,16 +3264,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -2676,16 +3281,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3">
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -2693,16 +3298,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2710,16 +3315,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2727,16 +3332,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="3">
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>6</v>
@@ -2744,16 +3349,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -2761,16 +3366,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -2778,16 +3383,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2795,16 +3400,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2812,16 +3417,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3">
         <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>6</v>
@@ -2829,16 +3434,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C36" s="3">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>8</v>
@@ -2846,16 +3451,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2863,16 +3468,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="3">
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -2880,16 +3485,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -2897,16 +3502,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3">
         <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2914,16 +3519,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3">
         <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>7</v>
@@ -2931,16 +3536,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -2948,16 +3553,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -2965,16 +3570,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2982,16 +3587,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="3">
         <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>4</v>
@@ -2999,16 +3604,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -3016,16 +3621,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -3033,16 +3638,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="3">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3050,16 +3655,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -3067,16 +3672,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="3">
         <v>9</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -3084,16 +3689,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="3">
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -3101,16 +3706,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -3118,16 +3723,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -3135,16 +3740,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -3152,16 +3757,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="3">
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>8</v>
@@ -3169,16 +3774,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="3">
         <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -3186,16 +3791,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" s="3">
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -3203,16 +3808,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="3">
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>7</v>
@@ -3220,16 +3825,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="3">
         <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>6</v>
@@ -3237,16 +3842,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" s="3">
         <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60">
         <v>6</v>
@@ -3254,16 +3859,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="3">
         <v>10</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>8</v>
@@ -3271,16 +3876,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -3288,16 +3893,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63">
         <v>5</v>
@@ -3305,16 +3910,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C64" s="3">
         <v>3</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3322,16 +3927,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C65" s="3">
         <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65">
         <v>7</v>
@@ -3339,16 +3944,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C66" s="3">
         <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -3356,16 +3961,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" s="3">
         <v>6</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E67">
         <v>8</v>
@@ -3373,16 +3978,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C68" s="3">
         <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68">
         <v>8</v>
@@ -3390,16 +3995,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" s="3">
         <v>8</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -3407,16 +4012,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C70" s="3">
         <v>9</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70">
         <v>5</v>
@@ -3424,16 +4029,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="3">
         <v>10</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E71">
         <v>6</v>
@@ -3441,16 +4046,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -3458,16 +4063,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -3475,16 +4080,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C74" s="3">
         <v>3</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -3492,16 +4097,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3">
         <v>4</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E75">
         <v>7</v>
@@ -3509,16 +4114,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" s="3">
         <v>5</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E76">
         <v>8</v>
@@ -3526,16 +4131,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" s="3">
         <v>6</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77">
         <v>4</v>
@@ -3543,16 +4148,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C78" s="3">
         <v>7</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -3560,16 +4165,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="3">
         <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3577,16 +4182,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C80" s="3">
         <v>9</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -3594,16 +4199,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" s="3">
         <v>10</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3611,16 +4216,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E82">
         <v>7</v>
@@ -3628,16 +4233,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C83" s="3">
         <v>2</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E83">
         <v>8</v>
@@ -3645,16 +4250,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C84" s="3">
         <v>3</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -3662,16 +4267,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" s="3">
         <v>4</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>8</v>
@@ -3679,16 +4284,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86" s="3">
         <v>5</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>6</v>
@@ -3696,16 +4301,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C87" s="3">
         <v>6</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -3713,16 +4318,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C88" s="3">
         <v>7</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88">
         <v>6</v>
@@ -3730,16 +4335,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C89" s="3">
         <v>8</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -3747,16 +4352,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C90" s="3">
         <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3764,16 +4369,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C91" s="3">
         <v>10</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E91">
         <v>7</v>
@@ -3781,16 +4386,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -3798,16 +4403,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C93" s="3">
         <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -3815,16 +4420,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -3832,16 +4437,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C95" s="3">
         <v>4</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -3849,16 +4454,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C96" s="3">
         <v>5</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -3866,16 +4471,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C97" s="3">
         <v>6</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97">
         <v>5</v>
@@ -3883,16 +4488,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C98" s="3">
         <v>7</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E98">
         <v>8</v>
@@ -3900,16 +4505,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C99" s="3">
         <v>8</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -3917,16 +4522,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="3">
         <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E100">
         <v>8</v>
@@ -3934,16 +4539,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C101" s="3">
         <v>10</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -3951,16 +4556,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -3968,16 +4573,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" s="3">
         <v>2</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -3985,16 +4590,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -4002,16 +4607,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C105" s="3">
         <v>4</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -4019,16 +4624,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" s="3">
         <v>5</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E106">
         <v>7</v>
@@ -4036,16 +4641,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C107" s="3">
         <v>6</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>2</v>
@@ -4053,16 +4658,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C108" s="3">
         <v>7</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>2</v>
@@ -4070,16 +4675,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C109" s="3">
         <v>8</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -4087,16 +4692,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -4104,16 +4709,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C111" s="3">
         <v>10</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -4121,16 +4726,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -4138,16 +4743,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C113" s="3">
         <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E113">
         <v>5</v>
@@ -4155,16 +4760,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E114">
         <v>7</v>
@@ -4172,16 +4777,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" s="3">
         <v>4</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E115">
         <v>7</v>
@@ -4189,16 +4794,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C116" s="3">
         <v>5</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -4206,16 +4811,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C117" s="3">
         <v>6</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -4223,16 +4828,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C118" s="3">
         <v>7</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118">
         <v>8</v>
@@ -4240,16 +4845,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C119" s="3">
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -4257,16 +4862,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C120" s="3">
         <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>7</v>
@@ -4274,16 +4879,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C121" s="3">
         <v>10</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -4291,16 +4896,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -4308,16 +4913,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C123" s="3">
         <v>2</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -4325,16 +4930,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E124">
         <v>7</v>
@@ -4342,16 +4947,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C125" s="3">
         <v>4</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -4359,16 +4964,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C126" s="3">
         <v>5</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>5</v>
@@ -4376,16 +4981,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C127" s="3">
         <v>6</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>5</v>
@@ -4393,16 +4998,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C128" s="3">
         <v>7</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E128">
         <v>8</v>
@@ -4410,16 +5015,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C129" s="3">
         <v>8</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -4427,16 +5032,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130" s="3">
         <v>9</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E130">
         <v>5</v>
@@ -4444,16 +5049,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C131" s="3">
         <v>10</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E131">
         <v>5</v>
@@ -4461,16 +5066,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -4478,16 +5083,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C133" s="3">
         <v>2</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E133">
         <v>4</v>
@@ -4495,16 +5100,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" s="3">
         <v>3</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E134">
         <v>3</v>
@@ -4512,16 +5117,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C135" s="3">
         <v>4</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E135">
         <v>7</v>
@@ -4529,16 +5134,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136" s="3">
         <v>5</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E136">
         <v>7</v>
@@ -4546,16 +5151,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C137" s="3">
         <v>6</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137">
         <v>3</v>
@@ -4563,16 +5168,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138" s="3">
         <v>7</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E138">
         <v>4</v>
@@ -4580,16 +5185,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C139" s="3">
         <v>8</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E139">
         <v>7</v>
@@ -4597,16 +5202,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C140" s="3">
         <v>9</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E140">
         <v>6</v>
@@ -4614,16 +5219,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C141" s="3">
         <v>10</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141">
         <v>6</v>
@@ -4631,16 +5236,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E142">
         <v>5</v>
@@ -4648,16 +5253,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C143" s="3">
         <v>2</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E143">
         <v>8</v>
@@ -4665,16 +5270,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E144">
         <v>5</v>
@@ -4682,16 +5287,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C145" s="3">
         <v>4</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E145">
         <v>7</v>
@@ -4699,16 +5304,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C146" s="3">
         <v>5</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -4716,16 +5321,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C147" s="3">
         <v>6</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E147">
         <v>3</v>
@@ -4733,16 +5338,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C148" s="3">
         <v>7</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E148">
         <v>5</v>
@@ -4750,16 +5355,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C149" s="3">
         <v>8</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -4767,16 +5372,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C150" s="3">
         <v>9</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E150">
         <v>3</v>
@@ -4784,16 +5389,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C151" s="3">
         <v>10</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E151">
         <v>8</v>
@@ -4801,16 +5406,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E152">
         <v>6</v>
@@ -4818,16 +5423,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C153" s="3">
         <v>2</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -4835,16 +5440,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C154" s="3">
         <v>3</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E154">
         <v>6</v>
@@ -4852,16 +5457,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C155" s="3">
         <v>4</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -4869,16 +5474,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C156" s="3">
         <v>5</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -4886,16 +5491,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C157" s="3">
         <v>6</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -4903,16 +5508,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C158" s="3">
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E158">
         <v>4</v>
@@ -4920,16 +5525,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C159" s="3">
         <v>8</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -4937,16 +5542,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C160" s="3">
         <v>9</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -4954,16 +5559,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C161" s="3">
         <v>10</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -5095,12 +5700,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E066D9-5BBB-4CDE-9DB9-94A13D4A9EE2}">
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5111,15 +5716,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -5127,7 +5732,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>17</v>
@@ -5135,7 +5740,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -5143,7 +5748,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -5151,7 +5756,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -5159,7 +5764,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -5167,7 +5772,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -5175,7 +5780,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -5183,7 +5788,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>17</v>
@@ -5191,7 +5796,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>16</v>
@@ -5199,7 +5804,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -5207,7 +5812,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>14</v>
@@ -5215,7 +5820,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -5223,7 +5828,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -5231,7 +5836,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -5239,7 +5844,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -5247,7 +5852,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -5255,7 +5860,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -5263,7 +5868,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -5271,7 +5876,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>13</v>
@@ -5279,7 +5884,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>13</v>
@@ -5287,7 +5892,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -5295,7 +5900,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>15</v>
@@ -5303,7 +5908,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -5311,7 +5916,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -5319,7 +5924,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>17</v>
@@ -5327,7 +5932,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -5335,7 +5940,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>15</v>
@@ -5343,7 +5948,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>14</v>
@@ -5351,7 +5956,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -5359,7 +5964,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>16</v>
@@ -5367,7 +5972,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -5375,7 +5980,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -5383,7 +5988,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>19</v>
@@ -5391,7 +5996,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>20</v>
@@ -5399,7 +6004,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>20</v>
@@ -5407,7 +6012,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>19</v>
@@ -5415,7 +6020,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>18</v>
@@ -5423,7 +6028,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>17</v>
@@ -5431,7 +6036,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -5439,7 +6044,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -5447,7 +6052,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -5455,7 +6060,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -5463,7 +6068,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -5471,7 +6076,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -5479,7 +6084,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>9</v>
@@ -5487,7 +6092,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -5495,7 +6100,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -5503,7 +6108,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -5511,7 +6116,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -5519,7 +6124,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -5527,7 +6132,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -5535,7 +6140,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5543,7 +6148,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -5551,7 +6156,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -5559,7 +6164,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -5567,7 +6172,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -5575,7 +6180,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -5583,7 +6188,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -5591,7 +6196,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5599,7 +6204,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -5607,7 +6212,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5615,7 +6220,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -5623,7 +6228,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5631,7 +6236,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -5639,7 +6244,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -5647,7 +6252,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -5655,7 +6260,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5663,7 +6268,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -5671,7 +6276,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -5679,7 +6284,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -5687,7 +6292,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -5695,7 +6300,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -5703,7 +6308,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5711,7 +6316,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -5719,7 +6324,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -5727,7 +6332,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -5735,7 +6340,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -5743,7 +6348,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -5751,7 +6356,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -5759,7 +6364,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -5767,7 +6372,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -5775,7 +6380,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84">
         <v>7</v>
@@ -5783,7 +6388,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -5791,7 +6396,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -5799,7 +6404,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -5807,7 +6412,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -5815,7 +6420,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -5823,7 +6428,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -5831,7 +6436,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -5839,7 +6444,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5847,7 +6452,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -5855,7 +6460,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5863,7 +6468,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5871,7 +6476,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B96">
         <v>6</v>
@@ -5879,7 +6484,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -5887,7 +6492,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5895,7 +6500,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -5903,7 +6508,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -5911,7 +6516,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -5919,7 +6524,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -5927,7 +6532,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -5935,7 +6540,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -5943,7 +6548,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5951,7 +6556,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>6</v>
@@ -5959,7 +6564,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107">
         <v>6</v>
@@ -5967,7 +6572,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5975,7 +6580,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -5983,7 +6588,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -5991,7 +6596,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5999,7 +6604,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -6007,7 +6612,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B113">
         <v>6</v>
@@ -6015,7 +6620,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>7</v>
@@ -6023,7 +6628,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -6031,7 +6636,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B116">
         <v>9</v>
@@ -6039,7 +6644,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117">
         <v>9</v>
@@ -6047,7 +6652,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -6055,7 +6660,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B119">
         <v>7</v>
@@ -6063,7 +6668,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B120">
         <v>6</v>
@@ -6071,7 +6676,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -6079,7 +6684,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B122">
         <v>16</v>
@@ -6087,7 +6692,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B123">
         <v>17</v>
@@ -6095,7 +6700,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B124">
         <v>18</v>
@@ -6103,7 +6708,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B125">
         <v>19</v>
@@ -6111,7 +6716,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B126">
         <v>20</v>
@@ -6119,7 +6724,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B127">
         <v>20</v>
@@ -6127,7 +6732,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128">
         <v>19</v>
@@ -6135,7 +6740,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B129">
         <v>18</v>
@@ -6143,7 +6748,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B130">
         <v>17</v>
@@ -6151,7 +6756,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B131">
         <v>16</v>
@@ -6159,7 +6764,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B132">
         <v>13</v>
@@ -6167,7 +6772,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B133">
         <v>14</v>
@@ -6175,7 +6780,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B134">
         <v>15</v>
@@ -6183,7 +6788,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135">
         <v>16</v>
@@ -6191,7 +6796,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B136">
         <v>17</v>
@@ -6199,7 +6804,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B137">
         <v>17</v>
@@ -6207,7 +6812,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B138">
         <v>16</v>
@@ -6215,7 +6820,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B139">
         <v>15</v>
@@ -6223,7 +6828,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B140">
         <v>14</v>
@@ -6231,7 +6836,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B141">
         <v>13</v>
@@ -6239,7 +6844,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B142">
         <v>13</v>
@@ -6247,7 +6852,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B143">
         <v>14</v>
@@ -6255,7 +6860,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B144">
         <v>15</v>
@@ -6263,7 +6868,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145">
         <v>16</v>
@@ -6271,7 +6876,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146">
         <v>17</v>
@@ -6279,7 +6884,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>17</v>
@@ -6287,7 +6892,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148">
         <v>16</v>
@@ -6295,7 +6900,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B149">
         <v>15</v>
@@ -6303,7 +6908,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B150">
         <v>14</v>
@@ -6311,7 +6916,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B151">
         <v>13</v>
@@ -6319,7 +6924,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B152">
         <v>16</v>
@@ -6327,7 +6932,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B153">
         <v>17</v>
@@ -6335,7 +6940,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B154">
         <v>18</v>
@@ -6343,7 +6948,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155">
         <v>19</v>
@@ -6351,7 +6956,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156">
         <v>20</v>
@@ -6359,7 +6964,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B157">
         <v>20</v>
@@ -6367,7 +6972,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B158">
         <v>19</v>
@@ -6375,7 +6980,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B159">
         <v>18</v>
@@ -6383,7 +6988,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B160">
         <v>17</v>
@@ -6391,7 +6996,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B161">
         <v>16</v>
@@ -6403,33 +7008,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9BA62F-64DF-4A45-B678-AB2D7C70CAFC}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -6437,10 +7042,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -6448,10 +7053,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>24</v>
@@ -6459,10 +7064,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>24</v>
@@ -6470,10 +7075,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -6481,10 +7086,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -6492,10 +7097,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -6503,10 +7108,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -6514,10 +7119,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>30</v>
@@ -6525,10 +7130,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -6536,10 +7141,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -6547,10 +7152,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -6558,10 +7163,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>24</v>
@@ -6569,10 +7174,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -6580,10 +7185,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>30</v>
@@ -6591,10 +7196,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -6602,10 +7207,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -6613,10 +7218,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -6624,10 +7229,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -6635,10 +7240,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>24</v>
@@ -6646,10 +7251,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -6657,10 +7262,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>24</v>
@@ -6668,10 +7273,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>30</v>
@@ -6679,10 +7284,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>30</v>
@@ -6690,10 +7295,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>42</v>
@@ -6701,10 +7306,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>30</v>
@@ -6712,10 +7317,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>24</v>
@@ -6723,10 +7328,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -6734,10 +7339,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>24</v>
@@ -6745,10 +7350,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>24</v>
@@ -6756,10 +7361,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -6767,10 +7372,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>30</v>
@@ -6781,7 +7386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510DF738-759C-44ED-8F78-1923F126EB4F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -6793,21 +7398,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -6815,10 +7420,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6826,10 +7431,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6837,10 +7442,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6848,10 +7453,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -6859,10 +7464,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -6870,10 +7475,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -6881,10 +7486,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -6892,10 +7497,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -6903,10 +7508,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -6914,10 +7519,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -6925,10 +7530,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -6936,10 +7541,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -6947,10 +7552,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -6958,10 +7563,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -6969,10 +7574,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -6980,10 +7585,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -6991,10 +7596,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7002,10 +7607,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7013,10 +7618,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -7024,10 +7629,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>1</v>

--- a/crossdock/crossdock_data.xlsx
+++ b/crossdock/crossdock_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\GitHub\Operational-Research\crossdock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0C3AF6-40FA-446E-BC93-06B80E0D012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F5075A-B274-4553-996B-07B3EEE3B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{096C534D-0398-477A-B55F-40ED385B8DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="illustration map" sheetId="2" r:id="rId1"/>
@@ -840,18 +840,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1164,7 +1153,7 @@
   <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1752,15 +1741,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC115E5E-7BD7-4A60-9304-B4F32D7BD265}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>83</v>
       </c>
@@ -1768,44 +1757,53 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
       <c r="B2">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>73</v>
       </c>
       <c r="B4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1816,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2827,7 +2825,7 @@
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2868,7 +2866,7 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2885,7 +2883,7 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2902,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2919,7 +2917,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2936,7 +2934,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2953,7 +2951,7 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2970,7 +2968,7 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2987,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3004,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3021,7 +3019,7 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3038,7 +3036,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3055,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3072,7 +3070,7 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3089,7 +3087,7 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3123,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3140,7 +3138,7 @@
         <v>15</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3174,7 +3172,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3191,7 +3189,7 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3208,7 +3206,7 @@
         <v>14</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3225,7 +3223,7 @@
         <v>14</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3242,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3259,7 +3257,7 @@
         <v>14</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3276,7 +3274,7 @@
         <v>14</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3293,7 +3291,7 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3327,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3344,7 +3342,7 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3378,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3395,7 +3393,7 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3412,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3446,7 +3444,7 @@
         <v>14</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3463,7 +3461,7 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3480,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3497,7 +3495,7 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3514,7 +3512,7 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3531,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,7 +3546,7 @@
         <v>14</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3565,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3582,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3599,7 +3597,7 @@
         <v>14</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3616,7 +3614,7 @@
         <v>14</v>
       </c>
       <c r="E46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3633,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3650,7 +3648,7 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3684,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3701,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3718,7 +3716,7 @@
         <v>14</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3735,7 +3733,7 @@
         <v>14</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3769,7 +3767,7 @@
         <v>14</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3786,7 +3784,7 @@
         <v>14</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3803,7 +3801,7 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3820,7 +3818,7 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3837,7 +3835,7 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3854,7 +3852,7 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3871,7 +3869,7 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3888,7 +3886,7 @@
         <v>14</v>
       </c>
       <c r="E62">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3922,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3939,7 +3937,7 @@
         <v>14</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3956,7 +3954,7 @@
         <v>14</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3973,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3990,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4007,7 +4005,7 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4041,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4058,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4075,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4092,7 +4090,7 @@
         <v>14</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4109,7 +4107,7 @@
         <v>14</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4126,7 +4124,7 @@
         <v>14</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4143,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -4160,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -4177,7 +4175,7 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4194,7 +4192,7 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4211,7 +4209,7 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4228,7 +4226,7 @@
         <v>14</v>
       </c>
       <c r="E82">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4245,7 +4243,7 @@
         <v>14</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4262,7 +4260,7 @@
         <v>14</v>
       </c>
       <c r="E84">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4279,7 +4277,7 @@
         <v>14</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4296,7 +4294,7 @@
         <v>14</v>
       </c>
       <c r="E86">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4330,7 +4328,7 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4347,7 +4345,7 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4364,7 +4362,7 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4381,7 +4379,7 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4398,7 +4396,7 @@
         <v>14</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4415,7 +4413,7 @@
         <v>14</v>
       </c>
       <c r="E93">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -4432,7 +4430,7 @@
         <v>14</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4449,7 +4447,7 @@
         <v>14</v>
       </c>
       <c r="E95">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4466,7 +4464,7 @@
         <v>14</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -4500,7 +4498,7 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -4517,7 +4515,7 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4534,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -4551,7 +4549,7 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4568,7 +4566,7 @@
         <v>14</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4585,7 +4583,7 @@
         <v>14</v>
       </c>
       <c r="E103">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4636,7 +4634,7 @@
         <v>14</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -4653,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4670,7 +4668,7 @@
         <v>15</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4687,7 +4685,7 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4704,7 +4702,7 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4721,7 +4719,7 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4738,7 +4736,7 @@
         <v>14</v>
       </c>
       <c r="E112">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4772,7 +4770,7 @@
         <v>14</v>
       </c>
       <c r="E114">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4789,7 +4787,7 @@
         <v>14</v>
       </c>
       <c r="E115">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4806,7 +4804,7 @@
         <v>14</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4823,7 +4821,7 @@
         <v>15</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4840,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4857,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4874,7 +4872,7 @@
         <v>15</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4891,7 +4889,7 @@
         <v>15</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4908,7 +4906,7 @@
         <v>14</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4925,7 +4923,7 @@
         <v>14</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4942,7 +4940,7 @@
         <v>14</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -4959,7 +4957,7 @@
         <v>14</v>
       </c>
       <c r="E125">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5010,7 +5008,7 @@
         <v>15</v>
       </c>
       <c r="E128">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -5027,7 +5025,7 @@
         <v>15</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5078,7 +5076,7 @@
         <v>14</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5095,7 +5093,7 @@
         <v>14</v>
       </c>
       <c r="E133">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5112,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5129,7 +5127,7 @@
         <v>14</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5146,7 +5144,7 @@
         <v>14</v>
       </c>
       <c r="E136">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5163,7 +5161,7 @@
         <v>15</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5180,7 +5178,7 @@
         <v>15</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5197,7 +5195,7 @@
         <v>15</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5214,7 +5212,7 @@
         <v>15</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5231,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5265,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="E143">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5299,7 +5297,7 @@
         <v>14</v>
       </c>
       <c r="E145">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5316,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="E146">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -5333,7 +5331,7 @@
         <v>15</v>
       </c>
       <c r="E147">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -5367,7 +5365,7 @@
         <v>15</v>
       </c>
       <c r="E149">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -5384,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -5401,7 +5399,7 @@
         <v>15</v>
       </c>
       <c r="E151">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -5418,7 +5416,7 @@
         <v>14</v>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -5435,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="E153">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -5452,7 +5450,7 @@
         <v>14</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -5469,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="E155">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5486,7 +5484,7 @@
         <v>14</v>
       </c>
       <c r="E156">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -5503,7 +5501,7 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -5520,7 +5518,7 @@
         <v>15</v>
       </c>
       <c r="E158">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -5537,7 +5535,7 @@
         <v>15</v>
       </c>
       <c r="E159">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5571,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -5705,7 +5703,7 @@
   <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5727,7 +5725,7 @@
         <v>78</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -5735,7 +5733,7 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -5743,7 +5741,7 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -5751,7 +5749,7 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -5759,7 +5757,7 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5767,7 +5765,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -5775,7 +5773,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -5783,7 +5781,7 @@
         <v>24</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5791,7 +5789,7 @@
         <v>25</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5799,7 +5797,7 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5807,7 +5805,7 @@
         <v>27</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5815,7 +5813,7 @@
         <v>28</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5823,7 +5821,7 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5831,7 +5829,7 @@
         <v>30</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5839,7 +5837,7 @@
         <v>31</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5847,7 +5845,7 @@
         <v>32</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -5855,7 +5853,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -5863,7 +5861,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -5871,7 +5869,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5879,7 +5877,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -5887,7 +5885,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -5895,7 +5893,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -5903,7 +5901,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -5911,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5919,7 +5917,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>17</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -5927,7 +5925,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -5935,7 +5933,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5943,7 +5941,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5951,7 +5949,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5959,7 +5957,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -5967,7 +5965,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5975,7 +5973,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5983,7 +5981,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5991,7 +5989,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5999,7 +5997,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -6007,7 +6005,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -6015,7 +6013,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -6023,7 +6021,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -6031,7 +6029,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6039,7 +6037,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -6047,7 +6045,7 @@
         <v>95</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6055,7 +6053,7 @@
         <v>96</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -6063,7 +6061,7 @@
         <v>97</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6071,7 +6069,7 @@
         <v>98</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -6079,7 +6077,7 @@
         <v>99</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6087,7 +6085,7 @@
         <v>100</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -6095,7 +6093,7 @@
         <v>101</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6103,7 +6101,7 @@
         <v>102</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -6111,7 +6109,7 @@
         <v>103</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6119,7 +6117,7 @@
         <v>104</v>
       </c>
       <c r="B51">
-        <v>5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -6127,7 +6125,7 @@
         <v>105</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6135,7 +6133,7 @@
         <v>106</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -6143,7 +6141,7 @@
         <v>107</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -6151,7 +6149,7 @@
         <v>108</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -6159,7 +6157,7 @@
         <v>109</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -6167,7 +6165,7 @@
         <v>110</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -6175,7 +6173,7 @@
         <v>111</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -6183,7 +6181,7 @@
         <v>112</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -6191,7 +6189,7 @@
         <v>113</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -6199,7 +6197,7 @@
         <v>114</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -6207,7 +6205,7 @@
         <v>115</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -6215,7 +6213,7 @@
         <v>116</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -6223,7 +6221,7 @@
         <v>117</v>
       </c>
       <c r="B64">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -6231,7 +6229,7 @@
         <v>118</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -6239,7 +6237,7 @@
         <v>119</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -6247,7 +6245,7 @@
         <v>120</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -6255,7 +6253,7 @@
         <v>121</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -6263,7 +6261,7 @@
         <v>122</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -6271,7 +6269,7 @@
         <v>123</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6279,7 +6277,7 @@
         <v>124</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6287,7 +6285,7 @@
         <v>125</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -6295,7 +6293,7 @@
         <v>126</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -6303,7 +6301,7 @@
         <v>127</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -6311,7 +6309,7 @@
         <v>128</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -6319,7 +6317,7 @@
         <v>129</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -6327,7 +6325,7 @@
         <v>130</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -6335,7 +6333,7 @@
         <v>131</v>
       </c>
       <c r="B78">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -6343,7 +6341,7 @@
         <v>132</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -6351,7 +6349,7 @@
         <v>133</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -6359,7 +6357,7 @@
         <v>134</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -6367,7 +6365,7 @@
         <v>135</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -6375,7 +6373,7 @@
         <v>136</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -6383,7 +6381,7 @@
         <v>137</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -6391,7 +6389,7 @@
         <v>138</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -6399,7 +6397,7 @@
         <v>139</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -6407,7 +6405,7 @@
         <v>140</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -6415,7 +6413,7 @@
         <v>141</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -6423,7 +6421,7 @@
         <v>142</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -6431,7 +6429,7 @@
         <v>143</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -6439,7 +6437,7 @@
         <v>144</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -6447,7 +6445,7 @@
         <v>145</v>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -6455,7 +6453,7 @@
         <v>146</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -6463,7 +6461,7 @@
         <v>147</v>
       </c>
       <c r="B94">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -6471,7 +6469,7 @@
         <v>148</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -6479,7 +6477,7 @@
         <v>149</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -6487,7 +6485,7 @@
         <v>150</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -6495,7 +6493,7 @@
         <v>151</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -6503,7 +6501,7 @@
         <v>152</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -6511,7 +6509,7 @@
         <v>153</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -6519,7 +6517,7 @@
         <v>154</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -6527,7 +6525,7 @@
         <v>155</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -6535,7 +6533,7 @@
         <v>156</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -6543,7 +6541,7 @@
         <v>157</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -6551,7 +6549,7 @@
         <v>158</v>
       </c>
       <c r="B105">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -6559,7 +6557,7 @@
         <v>159</v>
       </c>
       <c r="B106">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -6567,7 +6565,7 @@
         <v>160</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -6575,7 +6573,7 @@
         <v>161</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -6583,7 +6581,7 @@
         <v>162</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -6591,7 +6589,7 @@
         <v>163</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -6599,7 +6597,7 @@
         <v>164</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -6607,7 +6605,7 @@
         <v>165</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -6615,7 +6613,7 @@
         <v>166</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -6623,7 +6621,7 @@
         <v>167</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -6631,7 +6629,7 @@
         <v>168</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -6639,7 +6637,7 @@
         <v>169</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -6647,7 +6645,7 @@
         <v>170</v>
       </c>
       <c r="B117">
-        <v>9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -6655,7 +6653,7 @@
         <v>171</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -6663,7 +6661,7 @@
         <v>172</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -6671,7 +6669,7 @@
         <v>173</v>
       </c>
       <c r="B120">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6679,7 +6677,7 @@
         <v>174</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -6687,7 +6685,7 @@
         <v>175</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -6695,7 +6693,7 @@
         <v>176</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -6703,7 +6701,7 @@
         <v>177</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -6711,7 +6709,7 @@
         <v>178</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -6719,7 +6717,7 @@
         <v>179</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -6727,7 +6725,7 @@
         <v>180</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -6735,7 +6733,7 @@
         <v>181</v>
       </c>
       <c r="B128">
-        <v>19</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -6743,7 +6741,7 @@
         <v>182</v>
       </c>
       <c r="B129">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -6751,7 +6749,7 @@
         <v>183</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -6759,7 +6757,7 @@
         <v>184</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -6767,7 +6765,7 @@
         <v>185</v>
       </c>
       <c r="B132">
-        <v>13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -6775,7 +6773,7 @@
         <v>186</v>
       </c>
       <c r="B133">
-        <v>14</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -6783,7 +6781,7 @@
         <v>187</v>
       </c>
       <c r="B134">
-        <v>15</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -6791,7 +6789,7 @@
         <v>188</v>
       </c>
       <c r="B135">
-        <v>16</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -6799,7 +6797,7 @@
         <v>189</v>
       </c>
       <c r="B136">
-        <v>17</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -6807,7 +6805,7 @@
         <v>190</v>
       </c>
       <c r="B137">
-        <v>17</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -6815,7 +6813,7 @@
         <v>191</v>
       </c>
       <c r="B138">
-        <v>16</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -6823,7 +6821,7 @@
         <v>192</v>
       </c>
       <c r="B139">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -6831,7 +6829,7 @@
         <v>193</v>
       </c>
       <c r="B140">
-        <v>14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -6839,7 +6837,7 @@
         <v>194</v>
       </c>
       <c r="B141">
-        <v>13</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -6847,7 +6845,7 @@
         <v>195</v>
       </c>
       <c r="B142">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -6855,7 +6853,7 @@
         <v>196</v>
       </c>
       <c r="B143">
-        <v>14</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -6863,7 +6861,7 @@
         <v>197</v>
       </c>
       <c r="B144">
-        <v>15</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -6871,7 +6869,7 @@
         <v>198</v>
       </c>
       <c r="B145">
-        <v>16</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -6879,7 +6877,7 @@
         <v>199</v>
       </c>
       <c r="B146">
-        <v>17</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -6887,7 +6885,7 @@
         <v>200</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -6895,7 +6893,7 @@
         <v>201</v>
       </c>
       <c r="B148">
-        <v>16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -6903,7 +6901,7 @@
         <v>202</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -6911,7 +6909,7 @@
         <v>203</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -6919,7 +6917,7 @@
         <v>204</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -6927,7 +6925,7 @@
         <v>205</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -6935,7 +6933,7 @@
         <v>206</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -6943,7 +6941,7 @@
         <v>207</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -6951,7 +6949,7 @@
         <v>208</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -6959,7 +6957,7 @@
         <v>209</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -6967,7 +6965,7 @@
         <v>210</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -6975,7 +6973,7 @@
         <v>211</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -6983,7 +6981,7 @@
         <v>212</v>
       </c>
       <c r="B159">
-        <v>18</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -6991,7 +6989,7 @@
         <v>213</v>
       </c>
       <c r="B160">
-        <v>17</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -6999,7 +6997,7 @@
         <v>214</v>
       </c>
       <c r="B161">
-        <v>16</v>
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>
@@ -7013,7 +7011,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D2" sqref="D2:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7037,7 +7035,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -7048,7 +7046,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -7059,7 +7057,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7070,7 +7068,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7081,7 +7079,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7092,7 +7090,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7103,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7114,7 +7112,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7125,7 +7123,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7136,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7147,7 +7145,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7158,7 +7156,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7169,7 +7167,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7180,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7191,7 +7189,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -7202,7 +7200,7 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -7213,7 +7211,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -7224,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -7235,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -7246,7 +7244,7 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -7257,7 +7255,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -7268,7 +7266,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -7279,7 +7277,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -7290,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -7301,7 +7299,7 @@
         <v>15</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -7312,7 +7310,7 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -7323,7 +7321,7 @@
         <v>15</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -7334,7 +7332,7 @@
         <v>14</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -7345,7 +7343,7 @@
         <v>15</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -7356,7 +7354,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -7367,7 +7365,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -7378,7 +7376,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7391,7 +7389,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7478,7 +7476,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -7489,7 +7487,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -7500,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -7555,7 +7553,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -7566,7 +7564,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -7599,7 +7597,7 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -7610,7 +7608,7 @@
         <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -7618,7 +7616,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
         <v>177</v>
@@ -7629,7 +7627,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>178</v>
